--- a/biology/Botanique/Galeandra/Galeandra.xlsx
+++ b/biology/Botanique/Galeandra/Galeandra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Galeandra est un genre d'orchidées terrestres ou épiphytes appartenant à la sous-famille des Epidendroideae que l'on trouve en Amérique tropicale (sauf une espèce en Indochine). La moitié de ses espèces se rencontrent au Brésil, en Amazonie. Ce genre comprend trente-huit espèces. Son nom provient du latin galea (casque) et du grec ἀνήρ, génitif ἀνδρός - anêr, andros (homme, d'où étamine).
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Corydandra Rchb. (1841)</t>
         </is>
